--- a/va_facility_data_2025-02-20/South Hillsborough VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Hillsborough%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/South Hillsborough VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Hillsborough%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rba45926efb92486986e08726c466d761"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R877fade0929b48e98a1759b865b0352a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re7ab7d96727447e88747f3e23a7724e4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8518c6f471704f66b9d947a16f6d7efb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdbf0d3dffbba48c9a8fdc2e6fa45f683"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f53d89942814314878475b450ad76b1"/>
   </x:sheets>
 </x:workbook>
 </file>
